--- a/Examples/CapitalConstraint/Results.xlsx
+++ b/Examples/CapitalConstraint/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dynare\dynareOBC\Examples\CapitalConstraints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dynare\dynareOBC\Examples\CapitalConstraint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1424,7 +1424,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Mean absolute error</a:t>
+                  <a:t>Maximum absolute error</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>

--- a/Examples/CapitalConstraint/Results.xlsx
+++ b/Examples/CapitalConstraint/Results.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Data for 1 Norm Plot" sheetId="1" r:id="rId2"/>
     <sheet name="1 Norm Plot" sheetId="2" r:id="rId3"/>
     <sheet name="Data for Inf Norm Plot" sheetId="4" r:id="rId4"/>
-    <sheet name="Inf Norm Plot" sheetId="5" r:id="rId5"/>
+    <sheet name="Inf Norm Plot" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>1023 point QMC</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Infinity</t>
+  </si>
+  <si>
+    <t>Sparse 5</t>
+  </si>
+  <si>
+    <t>Sparse, degree 5</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -169,7 +175,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -179,10 +185,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$A$2:$A$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -251,72 +257,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$B$2:$B$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.43841468181557E-4</c:v>
+                  <c:v>-3.4636417474384062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.90177515208747E-4</c:v>
+                  <c:v>-3.537336242480936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6448373513444597E-4</c:v>
+                  <c:v>-3.5776010304664241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3854108177559101E-4</c:v>
+                  <c:v>-3.6224368155672217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0911151941238701E-4</c:v>
+                  <c:v>-3.6796220423643664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8782044051232299E-4</c:v>
+                  <c:v>-3.7262571451974993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.73228619597218E-4</c:v>
+                  <c:v>-3.7613803553536225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.62011766705023E-4</c:v>
+                  <c:v>-3.7904534420654987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5554621169077001E-4</c:v>
+                  <c:v>-3.8081405616162165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5139768106747699E-4</c:v>
+                  <c:v>-3.8198807767996938</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4753066074291301E-4</c:v>
+                  <c:v>-3.8311177125151277</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.45016006926117E-4</c:v>
+                  <c:v>-3.8385840575167225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.44726520967807E-4</c:v>
+                  <c:v>-3.839451877626042</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4405368796680199E-4</c:v>
+                  <c:v>-3.8414756187224852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4292192307224701E-4</c:v>
+                  <c:v>-3.844901148822478</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4410942073244201E-4</c:v>
+                  <c:v>-3.8413076275247935</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.46532391780192E-4</c:v>
+                  <c:v>-3.8340663615458763</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4771306401546399E-4</c:v>
+                  <c:v>-3.830581093185498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.47836567257899E-4</c:v>
+                  <c:v>-3.8302181302572236</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4825269974899001E-4</c:v>
+                  <c:v>-3.828997389191942</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4959308552328201E-4</c:v>
+                  <c:v>-3.8250884799239846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,13 +343,205 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1023 point QMC</c:v>
+                  <c:v>Sparse, degree 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data for 1 Norm Plot'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-3.4636417474384062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.6014480170413834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.6160625621450073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.6293294590846621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6515749393847803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6731877364551755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.6896920113838871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.7051393746857784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.7259221949188932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.7482508922792821</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.7695097593128395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.7931791380549811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8170454511840801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.839352529440915</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.8592432701204578</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.877507327771804</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.8942263427116468</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9098533292355229</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.9243943140748248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.9354774210491033</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.9406999788479338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAD7-4715-954E-8102A01E3CDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data for 1 Norm Plot'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1023 point QMC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -359,7 +557,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -369,10 +567,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$A$2:$A$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -441,72 +639,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$C$2:$C$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.43841468181557E-4</c:v>
+                  <c:v>-3.4636417474384062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7740551845634501E-4</c:v>
+                  <c:v>-3.5568849037122621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6120681766585201E-4</c:v>
+                  <c:v>-3.5830154918838768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4604573820404397E-4</c:v>
+                  <c:v>-3.6089841530460607</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.35442361974726E-4</c:v>
+                  <c:v>-3.6281153940130815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2826869310479199E-4</c:v>
+                  <c:v>-3.641553647616909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2329080774870401E-4</c:v>
+                  <c:v>-3.6511291552366032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1733035905377901E-4</c:v>
+                  <c:v>-3.6628796024940473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1642281386923299E-4</c:v>
+                  <c:v>-3.6646969606852204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.11219107345891E-4</c:v>
+                  <c:v>-3.675266797125273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.08810975281206E-4</c:v>
+                  <c:v>-3.6802466781851146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0880583404497301E-4</c:v>
+                  <c:v>-3.6802573712916966</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0655761515998199E-4</c:v>
+                  <c:v>-3.684958789256775</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.04942777547942E-4</c:v>
+                  <c:v>-3.6883673821844845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0249030880181799E-4</c:v>
+                  <c:v>-3.6935957573115812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.05397803805449E-4</c:v>
+                  <c:v>-3.6874042043622746</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0609372985244901E-4</c:v>
+                  <c:v>-3.6859352208937857</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0735529837953399E-4</c:v>
+                  <c:v>-3.6832848629881916</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.03614338276103E-4</c:v>
+                  <c:v>-3.6911916427648648</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.04622200509465E-4</c:v>
+                  <c:v>-3.6890472492372206</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0366083854788601E-4</c:v>
+                  <c:v>-3.691092472411849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,7 +712,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BAD7-4715-954E-8102A01E3CDE}"/>
+              <c16:uniqueId val="{00000000-F07E-4E6E-B3B8-72B2AF2E258C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -571,14 +769,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="900"/>
                   <a:t>Periods</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
                   <a:t> of future uncertainty considered</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -695,14 +893,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Mean absolute error</a:t>
+                  <a:rPr lang="en-GB" sz="900"/>
+                  <a:t>Log10 mean absolute error</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
                   <a:t> in log consumption</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -786,6 +984,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27559443866065786"/>
+          <c:y val="7.8826739705329316E-2"/>
+          <c:w val="0.49797778961419759"/>
+          <c:h val="3.5259208172362999E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -882,7 +1090,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -897,7 +1105,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -907,10 +1115,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$A$2:$A$45</c:f>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -979,72 +1187,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$B$2:$B$45</c:f>
+              <c:f>'Data for Inf Norm Plot'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.5741367922274001E-3</c:v>
+                  <c:v>-2.8029575302182663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.17445739778665E-3</c:v>
+                  <c:v>-2.9301627321786183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.03449692201241E-3</c:v>
+                  <c:v>-2.9852707971732242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8199394375609896E-4</c:v>
+                  <c:v>-3.0545343969569982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.57701438786163E-4</c:v>
+                  <c:v>-3.0666638613967954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6547110711365804E-4</c:v>
+                  <c:v>-3.0627474260330168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7138311111967205E-4</c:v>
+                  <c:v>-3.0597908616812051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9718396635607401E-4</c:v>
+                  <c:v>-3.0471184963299329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.97953808966512E-4</c:v>
+                  <c:v>-3.0467460030063127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9592118720560599E-4</c:v>
+                  <c:v>-3.0477301928681815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1522339622274196E-4</c:v>
+                  <c:v>-3.0384728863651245</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.1006435134344298E-4</c:v>
+                  <c:v>-3.0409278972995164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.90339335014256E-4</c:v>
+                  <c:v>-3.0504444391564083</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6396438363134397E-4</c:v>
+                  <c:v>-3.0635041606590665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6834070302033205E-4</c:v>
+                  <c:v>-3.0613098411714725</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.7594496421061795E-4</c:v>
+                  <c:v>-3.0575231797799733</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.72001638221653E-4</c:v>
+                  <c:v>-3.0594826991615203</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.6462725089908599E-4</c:v>
+                  <c:v>-3.06317108070545</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6697691573966995E-4</c:v>
+                  <c:v>-3.06199246596133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.74910912399551E-4</c:v>
+                  <c:v>-3.0580361666611462</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.7667094893717501E-4</c:v>
+                  <c:v>-3.0571633848284869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1260,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22C1-4CFF-B94F-50CEE5F903EA}"/>
+              <c16:uniqueId val="{00000000-0A2F-4438-8419-91B485AEF3D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1065,13 +1273,205 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1023 point QMC</c:v>
+                  <c:v>Sparse, degree 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-2.8029575302182663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9380060384897591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.9892972632162715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0486286375254528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.0716515545060843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0742724948660323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.084443968608868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.0952108226433936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.1012454771509583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.1132424791038042</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.1160622576643151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.1199946687942504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.1308436499816672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.1256992229290406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.1207667497800911</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.1157668800735476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.1123043208708387</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.1051866127039682</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.1123467155685285</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1160116527542825</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.1143633273975859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A2F-4438-8419-91B485AEF3D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data for Inf Norm Plot'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1023 point QMC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1087,7 +1487,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1097,10 +1497,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$A$2:$A$45</c:f>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1169,72 +1569,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$C$2:$C$45</c:f>
+              <c:f>'Data for Inf Norm Plot'!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.5741367922274001E-3</c:v>
+                  <c:v>-2.8029575302182663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.22557977911109E-3</c:v>
+                  <c:v>-2.9116584130940741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0967152217461499E-3</c:v>
+                  <c:v>-2.9599061287426829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9953280140352408E-4</c:v>
+                  <c:v>-3.0002029491848821</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3285260942355098E-4</c:v>
+                  <c:v>-3.0301869692981169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0033051136262398E-4</c:v>
+                  <c:v>-3.0455980317705245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.68256913550414E-4</c:v>
+                  <c:v>-3.0613517499062399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3442846285508598E-4</c:v>
+                  <c:v>-3.0786108902837359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1476918895417904E-4</c:v>
+                  <c:v>-3.088965402499789</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0977151710015505E-4</c:v>
+                  <c:v>-3.0916375031711856</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0419392760267005E-4</c:v>
+                  <c:v>-3.0946392105400076</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.9412917685450801E-4</c:v>
+                  <c:v>-3.1001088474066028</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0074127081419799E-4</c:v>
+                  <c:v>-3.0965077870480169</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.9795863484011199E-4</c:v>
+                  <c:v>-3.0980196213388784</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9132058740050105E-4</c:v>
+                  <c:v>-3.1016475352984902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8254902392138604E-4</c:v>
+                  <c:v>-3.1064884459200082</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.88474063657563E-4</c:v>
+                  <c:v>-3.1032125879351549</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.88270165684279E-4</c:v>
+                  <c:v>-3.103324910230064</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.83251288313913E-4</c:v>
+                  <c:v>-3.1060988821057998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8685391852151298E-4</c:v>
+                  <c:v>-3.1041058880586894</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8882347209807701E-4</c:v>
+                  <c:v>-3.1030201750812854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,7 +1642,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22C1-4CFF-B94F-50CEE5F903EA}"/>
+              <c16:uniqueId val="{00000002-0A2F-4438-8419-91B485AEF3D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1299,14 +1699,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="900"/>
                   <a:t>Periods</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
                   <a:t> of future uncertainty considered</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1423,14 +1823,22 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Maximum absolute error</a:t>
+                  <a:rPr lang="en-GB" sz="900"/>
+                  <a:t>Log10</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
+                  <a:t> m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900"/>
+                  <a:t>ean absolute error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
                   <a:t> in log consumption</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1514,6 +1922,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27559443866065786"/>
+          <c:y val="7.8826739705329316E-2"/>
+          <c:w val="0.49797778961419759"/>
+          <c:h val="3.5259208172362999E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3034,27 +3452,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3076,8 +3499,17 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3099,8 +3531,17 @@
       <c r="G3">
         <v>1.5741367922274001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>3.43841468181557E-4</v>
+      </c>
+      <c r="I3">
+        <v>4.2267417682874701E-4</v>
+      </c>
+      <c r="J3">
+        <v>1.5741367922274001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3114,16 +3555,25 @@
         <v>1.17445739778665E-3</v>
       </c>
       <c r="E4">
+        <v>2.50352529037425E-4</v>
+      </c>
+      <c r="F4">
+        <v>3.0752811760929199E-4</v>
+      </c>
+      <c r="G4">
+        <v>1.15343722016104E-3</v>
+      </c>
+      <c r="H4">
         <v>2.7740551845634501E-4</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>3.3756417833769102E-4</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>1.22557977911109E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3137,16 +3587,25 @@
         <v>1.03449692201241E-3</v>
       </c>
       <c r="E5">
+        <v>2.42068031133308E-4</v>
+      </c>
+      <c r="F5">
+        <v>2.9229202288159E-4</v>
+      </c>
+      <c r="G5">
+        <v>1.0249501345346299E-3</v>
+      </c>
+      <c r="H5">
         <v>2.6120681766585201E-4</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>3.1555770968816501E-4</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>1.0967152217461499E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3160,16 +3619,25 @@
         <v>8.8199394375609896E-4</v>
       </c>
       <c r="E6">
+        <v>2.3478510475058499E-4</v>
+      </c>
+      <c r="F6">
+        <v>2.7855399474838698E-4</v>
+      </c>
+      <c r="G6">
+        <v>8.9406967030181096E-4</v>
+      </c>
+      <c r="H6">
         <v>2.4604573820404397E-4</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>2.9646305833863602E-4</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>9.9953280140352408E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3183,16 +3651,25 @@
         <v>8.57701438786163E-4</v>
       </c>
       <c r="E7">
+        <v>2.2306172716469501E-4</v>
+      </c>
+      <c r="F7">
+        <v>2.6300330157257002E-4</v>
+      </c>
+      <c r="G7">
+        <v>8.4790743897866804E-4</v>
+      </c>
+      <c r="H7">
         <v>2.35442361974726E-4</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>2.8308683412459301E-4</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>9.3285260942355098E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3206,16 +3683,25 @@
         <v>8.6547110711365804E-4</v>
       </c>
       <c r="E8">
+        <v>2.1223268260128799E-4</v>
+      </c>
+      <c r="F8">
+        <v>2.51508180780789E-4</v>
+      </c>
+      <c r="G8">
+        <v>8.4280577956641302E-4</v>
+      </c>
+      <c r="H8">
         <v>2.2826869310479199E-4</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>2.7405716099146801E-4</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>9.0033051136262398E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3229,16 +3715,25 @@
         <v>8.7138311111967205E-4</v>
       </c>
       <c r="E9">
+        <v>2.0431863974990799E-4</v>
+      </c>
+      <c r="F9">
+        <v>2.43975045679572E-4</v>
+      </c>
+      <c r="G9">
+        <v>8.23296049293876E-4</v>
+      </c>
+      <c r="H9">
         <v>2.2329080774870401E-4</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>2.68022181418428E-4</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>8.68256913550414E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3252,16 +3747,25 @@
         <v>8.9718396635607401E-4</v>
       </c>
       <c r="E10">
+        <v>1.97178984367995E-4</v>
+      </c>
+      <c r="F10">
+        <v>2.3664005361763801E-4</v>
+      </c>
+      <c r="G10">
+        <v>8.03136155474227E-4</v>
+      </c>
+      <c r="H10">
         <v>2.1733035905377901E-4</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>2.6106397107659703E-4</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>8.3442846285508598E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3275,16 +3779,25 @@
         <v>8.97953808966512E-4</v>
       </c>
       <c r="E11">
+        <v>1.8796535318713401E-4</v>
+      </c>
+      <c r="F11">
+        <v>2.27075814135589E-4</v>
+      </c>
+      <c r="G11">
+        <v>7.9205350991906598E-4</v>
+      </c>
+      <c r="H11">
         <v>2.1642281386923299E-4</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>2.5987169535686698E-4</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>8.1476918895417904E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3298,16 +3811,25 @@
         <v>8.9592118720560599E-4</v>
       </c>
       <c r="E12">
+        <v>1.7854558175633799E-4</v>
+      </c>
+      <c r="F12">
+        <v>2.1762246182055101E-4</v>
+      </c>
+      <c r="G12">
+        <v>7.70473171613828E-4</v>
+      </c>
+      <c r="H12">
         <v>2.11219107345891E-4</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>2.5265021372050602E-4</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>8.0977151710015505E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3321,16 +3843,25 @@
         <v>9.1522339622274196E-4</v>
       </c>
       <c r="E13">
+        <v>1.7001617477763E-4</v>
+      </c>
+      <c r="F13">
+        <v>2.0811155879036701E-4</v>
+      </c>
+      <c r="G13">
+        <v>7.6548686377087005E-4</v>
+      </c>
+      <c r="H13">
         <v>2.08810975281206E-4</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>2.4961600117103699E-4</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>8.0419392760267005E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3344,16 +3875,25 @@
         <v>9.1006435134344298E-4</v>
       </c>
       <c r="E14">
+        <v>1.60998141207514E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.9771113896605599E-4</v>
+      </c>
+      <c r="G14">
+        <v>7.5858688704699695E-4</v>
+      </c>
+      <c r="H14">
         <v>2.0880583404497301E-4</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>2.4967666073812399E-4</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>7.9412917685450801E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3367,16 +3907,25 @@
         <v>8.90339335014256E-4</v>
       </c>
       <c r="E15">
+        <v>1.52389326206866E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.8724583794284299E-4</v>
+      </c>
+      <c r="G15">
+        <v>7.3987158771215999E-4</v>
+      </c>
+      <c r="H15">
         <v>2.0655761515998199E-4</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>2.47972814006438E-4</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>8.0074127081419799E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3390,16 +3939,25 @@
         <v>8.6396438363134397E-4</v>
       </c>
       <c r="E16">
+        <v>1.44759632053712E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.7698902976592999E-4</v>
+      </c>
+      <c r="G16">
+        <v>7.4868783584125498E-4</v>
+      </c>
+      <c r="H16">
         <v>2.04942777547942E-4</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>2.4586610538389201E-4</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>7.9795863484011199E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3413,16 +3971,25 @@
         <v>8.6834070302033205E-4</v>
       </c>
       <c r="E17">
+        <v>1.38279159107204E-4</v>
+      </c>
+      <c r="F17">
+        <v>1.68079737891357E-4</v>
+      </c>
+      <c r="G17">
+        <v>7.5723948285633103E-4</v>
+      </c>
+      <c r="H17">
         <v>2.0249030880181799E-4</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>2.4332596871586601E-4</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>7.9132058740050105E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3436,16 +4003,25 @@
         <v>8.7594496421061795E-4</v>
       </c>
       <c r="E18">
+        <v>1.32584474683456E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.6050149520181999E-4</v>
+      </c>
+      <c r="G18">
+        <v>7.6600767300050198E-4</v>
+      </c>
+      <c r="H18">
         <v>2.05397803805449E-4</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>2.44367967088775E-4</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>7.8254902392138604E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3459,16 +4035,25 @@
         <v>8.72001638221653E-4</v>
       </c>
       <c r="E19">
+        <v>1.27577373624061E-4</v>
+      </c>
+      <c r="F19">
+        <v>1.5389914461953801E-4</v>
+      </c>
+      <c r="G19">
+        <v>7.7213933837860804E-4</v>
+      </c>
+      <c r="H19">
         <v>2.0609372985244901E-4</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>2.4596561019415303E-4</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>7.88474063657563E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3482,16 +4067,25 @@
         <v>8.6462725089908599E-4</v>
       </c>
       <c r="E20">
+        <v>1.23068432970641E-4</v>
+      </c>
+      <c r="F20">
+        <v>1.48371413472434E-4</v>
+      </c>
+      <c r="G20">
+        <v>7.8489829791061904E-4</v>
+      </c>
+      <c r="H20">
         <v>2.0735529837953399E-4</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>2.4745898239776198E-4</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>7.88270165684279E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3505,16 +4099,25 @@
         <v>8.6697691573966995E-4</v>
       </c>
       <c r="E21">
+        <v>1.19016092057727E-4</v>
+      </c>
+      <c r="F21">
+        <v>1.4385426117779601E-4</v>
+      </c>
+      <c r="G21">
+        <v>7.7206396782358898E-4</v>
+      </c>
+      <c r="H21">
         <v>2.03614338276103E-4</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>2.42701270549147E-4</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>7.83251288313913E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3528,16 +4131,25 @@
         <v>8.74910912399551E-4</v>
       </c>
       <c r="E22">
+        <v>1.16017253189873E-4</v>
+      </c>
+      <c r="F22">
+        <v>1.4049591517065001E-4</v>
+      </c>
+      <c r="G22">
+        <v>7.6557606511340503E-4</v>
+      </c>
+      <c r="H22">
         <v>2.04622200509465E-4</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>2.44335653702164E-4</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>7.8685391852151298E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3551,18 +4163,28 @@
         <v>8.7667094893717501E-4</v>
       </c>
       <c r="E23">
+        <v>1.14630456294811E-4</v>
+      </c>
+      <c r="F23">
+        <v>1.38948108407808E-4</v>
+      </c>
+      <c r="G23">
+        <v>7.6848726079836705E-4</v>
+      </c>
+      <c r="H23">
         <v>2.0366083854788601E-4</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>2.42676412007738E-4</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>7.8882347209807701E-4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3571,19 +4193,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3591,284 +4213,371 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>'Source Data'!B3</f>
-        <v>3.43841468181557E-4</v>
+        <f>LOG10('Source Data'!B3)</f>
+        <v>-3.4636417474384062</v>
       </c>
       <c r="C2">
-        <f>'Source Data'!E3</f>
-        <v>3.43841468181557E-4</v>
-      </c>
+        <f>LOG10('Source Data'!E3)</f>
+        <v>-3.4636417474384062</v>
+      </c>
+      <c r="D2">
+        <f>LOG10('Source Data'!H3)</f>
+        <v>-3.4636417474384062</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f>'Source Data'!B4</f>
-        <v>2.90177515208747E-4</v>
+        <f>LOG10('Source Data'!B4)</f>
+        <v>-3.537336242480936</v>
       </c>
       <c r="C3">
-        <f>'Source Data'!E4</f>
-        <v>2.7740551845634501E-4</v>
-      </c>
+        <f>LOG10('Source Data'!E4)</f>
+        <v>-3.6014480170413834</v>
+      </c>
+      <c r="D3">
+        <f>LOG10('Source Data'!H4)</f>
+        <v>-3.5568849037122621</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>'Source Data'!B5</f>
-        <v>2.6448373513444597E-4</v>
+        <f>LOG10('Source Data'!B5)</f>
+        <v>-3.5776010304664241</v>
       </c>
       <c r="C4">
-        <f>'Source Data'!E5</f>
-        <v>2.6120681766585201E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E5)</f>
+        <v>-3.6160625621450073</v>
+      </c>
+      <c r="D4">
+        <f>LOG10('Source Data'!H5)</f>
+        <v>-3.5830154918838768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f>'Source Data'!B6</f>
-        <v>2.3854108177559101E-4</v>
+        <f>LOG10('Source Data'!B6)</f>
+        <v>-3.6224368155672217</v>
       </c>
       <c r="C5">
-        <f>'Source Data'!E6</f>
-        <v>2.4604573820404397E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E6)</f>
+        <v>-3.6293294590846621</v>
+      </c>
+      <c r="D5">
+        <f>LOG10('Source Data'!H6)</f>
+        <v>-3.6089841530460607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f>'Source Data'!B7</f>
-        <v>2.0911151941238701E-4</v>
+        <f>LOG10('Source Data'!B7)</f>
+        <v>-3.6796220423643664</v>
       </c>
       <c r="C6">
-        <f>'Source Data'!E7</f>
-        <v>2.35442361974726E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E7)</f>
+        <v>-3.6515749393847803</v>
+      </c>
+      <c r="D6">
+        <f>LOG10('Source Data'!H7)</f>
+        <v>-3.6281153940130815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f>'Source Data'!B8</f>
-        <v>1.8782044051232299E-4</v>
+        <f>LOG10('Source Data'!B8)</f>
+        <v>-3.7262571451974993</v>
       </c>
       <c r="C7">
-        <f>'Source Data'!E8</f>
-        <v>2.2826869310479199E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E8)</f>
+        <v>-3.6731877364551755</v>
+      </c>
+      <c r="D7">
+        <f>LOG10('Source Data'!H8)</f>
+        <v>-3.641553647616909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f>'Source Data'!B9</f>
-        <v>1.73228619597218E-4</v>
+        <f>LOG10('Source Data'!B9)</f>
+        <v>-3.7613803553536225</v>
       </c>
       <c r="C8">
-        <f>'Source Data'!E9</f>
-        <v>2.2329080774870401E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E9)</f>
+        <v>-3.6896920113838871</v>
+      </c>
+      <c r="D8">
+        <f>LOG10('Source Data'!H9)</f>
+        <v>-3.6511291552366032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f>'Source Data'!B10</f>
-        <v>1.62011766705023E-4</v>
+        <f>LOG10('Source Data'!B10)</f>
+        <v>-3.7904534420654987</v>
       </c>
       <c r="C9">
-        <f>'Source Data'!E10</f>
-        <v>2.1733035905377901E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E10)</f>
+        <v>-3.7051393746857784</v>
+      </c>
+      <c r="D9">
+        <f>LOG10('Source Data'!H10)</f>
+        <v>-3.6628796024940473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f>'Source Data'!B11</f>
-        <v>1.5554621169077001E-4</v>
+        <f>LOG10('Source Data'!B11)</f>
+        <v>-3.8081405616162165</v>
       </c>
       <c r="C10">
-        <f>'Source Data'!E11</f>
-        <v>2.1642281386923299E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E11)</f>
+        <v>-3.7259221949188932</v>
+      </c>
+      <c r="D10">
+        <f>LOG10('Source Data'!H11)</f>
+        <v>-3.6646969606852204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f>'Source Data'!B12</f>
-        <v>1.5139768106747699E-4</v>
+        <f>LOG10('Source Data'!B12)</f>
+        <v>-3.8198807767996938</v>
       </c>
       <c r="C11">
-        <f>'Source Data'!E12</f>
-        <v>2.11219107345891E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E12)</f>
+        <v>-3.7482508922792821</v>
+      </c>
+      <c r="D11">
+        <f>LOG10('Source Data'!H12)</f>
+        <v>-3.675266797125273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f>'Source Data'!B13</f>
-        <v>1.4753066074291301E-4</v>
+        <f>LOG10('Source Data'!B13)</f>
+        <v>-3.8311177125151277</v>
       </c>
       <c r="C12">
-        <f>'Source Data'!E13</f>
-        <v>2.08810975281206E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E13)</f>
+        <v>-3.7695097593128395</v>
+      </c>
+      <c r="D12">
+        <f>LOG10('Source Data'!H13)</f>
+        <v>-3.6802466781851146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f>'Source Data'!B14</f>
-        <v>1.45016006926117E-4</v>
+        <f>LOG10('Source Data'!B14)</f>
+        <v>-3.8385840575167225</v>
       </c>
       <c r="C13">
-        <f>'Source Data'!E14</f>
-        <v>2.0880583404497301E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E14)</f>
+        <v>-3.7931791380549811</v>
+      </c>
+      <c r="D13">
+        <f>LOG10('Source Data'!H14)</f>
+        <v>-3.6802573712916966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f>'Source Data'!B15</f>
-        <v>1.44726520967807E-4</v>
+        <f>LOG10('Source Data'!B15)</f>
+        <v>-3.839451877626042</v>
       </c>
       <c r="C14">
-        <f>'Source Data'!E15</f>
-        <v>2.0655761515998199E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E15)</f>
+        <v>-3.8170454511840801</v>
+      </c>
+      <c r="D14">
+        <f>LOG10('Source Data'!H15)</f>
+        <v>-3.684958789256775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f>'Source Data'!B16</f>
-        <v>1.4405368796680199E-4</v>
+        <f>LOG10('Source Data'!B16)</f>
+        <v>-3.8414756187224852</v>
       </c>
       <c r="C15">
-        <f>'Source Data'!E16</f>
-        <v>2.04942777547942E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E16)</f>
+        <v>-3.839352529440915</v>
+      </c>
+      <c r="D15">
+        <f>LOG10('Source Data'!H16)</f>
+        <v>-3.6883673821844845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f>'Source Data'!B17</f>
-        <v>1.4292192307224701E-4</v>
+        <f>LOG10('Source Data'!B17)</f>
+        <v>-3.844901148822478</v>
       </c>
       <c r="C16">
-        <f>'Source Data'!E17</f>
-        <v>2.0249030880181799E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E17)</f>
+        <v>-3.8592432701204578</v>
+      </c>
+      <c r="D16">
+        <f>LOG10('Source Data'!H17)</f>
+        <v>-3.6935957573115812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <f>'Source Data'!B18</f>
-        <v>1.4410942073244201E-4</v>
+        <f>LOG10('Source Data'!B18)</f>
+        <v>-3.8413076275247935</v>
       </c>
       <c r="C17">
-        <f>'Source Data'!E18</f>
-        <v>2.05397803805449E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E18)</f>
+        <v>-3.877507327771804</v>
+      </c>
+      <c r="D17">
+        <f>LOG10('Source Data'!H18)</f>
+        <v>-3.6874042043622746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <f>'Source Data'!B19</f>
-        <v>1.46532391780192E-4</v>
+        <f>LOG10('Source Data'!B19)</f>
+        <v>-3.8340663615458763</v>
       </c>
       <c r="C18">
-        <f>'Source Data'!E19</f>
-        <v>2.0609372985244901E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E19)</f>
+        <v>-3.8942263427116468</v>
+      </c>
+      <c r="D18">
+        <f>LOG10('Source Data'!H19)</f>
+        <v>-3.6859352208937857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <f>'Source Data'!B20</f>
-        <v>1.4771306401546399E-4</v>
+        <f>LOG10('Source Data'!B20)</f>
+        <v>-3.830581093185498</v>
       </c>
       <c r="C19">
-        <f>'Source Data'!E20</f>
-        <v>2.0735529837953399E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E20)</f>
+        <v>-3.9098533292355229</v>
+      </c>
+      <c r="D19">
+        <f>LOG10('Source Data'!H20)</f>
+        <v>-3.6832848629881916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <f>'Source Data'!B21</f>
-        <v>1.47836567257899E-4</v>
+        <f>LOG10('Source Data'!B21)</f>
+        <v>-3.8302181302572236</v>
       </c>
       <c r="C20">
-        <f>'Source Data'!E21</f>
-        <v>2.03614338276103E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E21)</f>
+        <v>-3.9243943140748248</v>
+      </c>
+      <c r="D20">
+        <f>LOG10('Source Data'!H21)</f>
+        <v>-3.6911916427648648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <f>'Source Data'!B22</f>
-        <v>1.4825269974899001E-4</v>
+        <f>LOG10('Source Data'!B22)</f>
+        <v>-3.828997389191942</v>
       </c>
       <c r="C21">
-        <f>'Source Data'!E22</f>
-        <v>2.04622200509465E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!E22)</f>
+        <v>-3.9354774210491033</v>
+      </c>
+      <c r="D21">
+        <f>LOG10('Source Data'!H22)</f>
+        <v>-3.6890472492372206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <f>'Source Data'!B23</f>
-        <v>1.4959308552328201E-4</v>
+        <f>LOG10('Source Data'!B23)</f>
+        <v>-3.8250884799239846</v>
       </c>
       <c r="C22">
-        <f>'Source Data'!E23</f>
-        <v>2.0366083854788601E-4</v>
+        <f>LOG10('Source Data'!E23)</f>
+        <v>-3.9406999788479338</v>
+      </c>
+      <c r="D22">
+        <f>LOG10('Source Data'!H23)</f>
+        <v>-3.691092472411849</v>
       </c>
     </row>
   </sheetData>
@@ -3878,19 +4587,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3898,284 +4607,371 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>'Source Data'!D3</f>
-        <v>1.5741367922274001E-3</v>
+        <f>LOG10('Source Data'!D3)</f>
+        <v>-2.8029575302182663</v>
       </c>
       <c r="C2">
-        <f>'Source Data'!G3</f>
-        <v>1.5741367922274001E-3</v>
-      </c>
+        <f>LOG10('Source Data'!G3)</f>
+        <v>-2.8029575302182663</v>
+      </c>
+      <c r="D2">
+        <f>LOG10('Source Data'!J3)</f>
+        <v>-2.8029575302182663</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f>'Source Data'!D4</f>
-        <v>1.17445739778665E-3</v>
+        <f>LOG10('Source Data'!D4)</f>
+        <v>-2.9301627321786183</v>
       </c>
       <c r="C3">
-        <f>'Source Data'!G4</f>
-        <v>1.22557977911109E-3</v>
-      </c>
+        <f>LOG10('Source Data'!G4)</f>
+        <v>-2.9380060384897591</v>
+      </c>
+      <c r="D3">
+        <f>LOG10('Source Data'!J4)</f>
+        <v>-2.9116584130940741</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>'Source Data'!D5</f>
-        <v>1.03449692201241E-3</v>
+        <f>LOG10('Source Data'!D5)</f>
+        <v>-2.9852707971732242</v>
       </c>
       <c r="C4">
-        <f>'Source Data'!G5</f>
-        <v>1.0967152217461499E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G5)</f>
+        <v>-2.9892972632162715</v>
+      </c>
+      <c r="D4">
+        <f>LOG10('Source Data'!J5)</f>
+        <v>-2.9599061287426829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f>'Source Data'!D6</f>
-        <v>8.8199394375609896E-4</v>
+        <f>LOG10('Source Data'!D6)</f>
+        <v>-3.0545343969569982</v>
       </c>
       <c r="C5">
-        <f>'Source Data'!G6</f>
-        <v>9.9953280140352408E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G6)</f>
+        <v>-3.0486286375254528</v>
+      </c>
+      <c r="D5">
+        <f>LOG10('Source Data'!J6)</f>
+        <v>-3.0002029491848821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f>'Source Data'!D7</f>
-        <v>8.57701438786163E-4</v>
+        <f>LOG10('Source Data'!D7)</f>
+        <v>-3.0666638613967954</v>
       </c>
       <c r="C6">
-        <f>'Source Data'!G7</f>
-        <v>9.3285260942355098E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G7)</f>
+        <v>-3.0716515545060843</v>
+      </c>
+      <c r="D6">
+        <f>LOG10('Source Data'!J7)</f>
+        <v>-3.0301869692981169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f>'Source Data'!D8</f>
-        <v>8.6547110711365804E-4</v>
+        <f>LOG10('Source Data'!D8)</f>
+        <v>-3.0627474260330168</v>
       </c>
       <c r="C7">
-        <f>'Source Data'!G8</f>
-        <v>9.0033051136262398E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G8)</f>
+        <v>-3.0742724948660323</v>
+      </c>
+      <c r="D7">
+        <f>LOG10('Source Data'!J8)</f>
+        <v>-3.0455980317705245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f>'Source Data'!D9</f>
-        <v>8.7138311111967205E-4</v>
+        <f>LOG10('Source Data'!D9)</f>
+        <v>-3.0597908616812051</v>
       </c>
       <c r="C8">
-        <f>'Source Data'!G9</f>
-        <v>8.68256913550414E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G9)</f>
+        <v>-3.084443968608868</v>
+      </c>
+      <c r="D8">
+        <f>LOG10('Source Data'!J9)</f>
+        <v>-3.0613517499062399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f>'Source Data'!D10</f>
-        <v>8.9718396635607401E-4</v>
+        <f>LOG10('Source Data'!D10)</f>
+        <v>-3.0471184963299329</v>
       </c>
       <c r="C9">
-        <f>'Source Data'!G10</f>
-        <v>8.3442846285508598E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G10)</f>
+        <v>-3.0952108226433936</v>
+      </c>
+      <c r="D9">
+        <f>LOG10('Source Data'!J10)</f>
+        <v>-3.0786108902837359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f>'Source Data'!D11</f>
-        <v>8.97953808966512E-4</v>
+        <f>LOG10('Source Data'!D11)</f>
+        <v>-3.0467460030063127</v>
       </c>
       <c r="C10">
-        <f>'Source Data'!G11</f>
-        <v>8.1476918895417904E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G11)</f>
+        <v>-3.1012454771509583</v>
+      </c>
+      <c r="D10">
+        <f>LOG10('Source Data'!J11)</f>
+        <v>-3.088965402499789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f>'Source Data'!D12</f>
-        <v>8.9592118720560599E-4</v>
+        <f>LOG10('Source Data'!D12)</f>
+        <v>-3.0477301928681815</v>
       </c>
       <c r="C11">
-        <f>'Source Data'!G12</f>
-        <v>8.0977151710015505E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G12)</f>
+        <v>-3.1132424791038042</v>
+      </c>
+      <c r="D11">
+        <f>LOG10('Source Data'!J12)</f>
+        <v>-3.0916375031711856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f>'Source Data'!D13</f>
-        <v>9.1522339622274196E-4</v>
+        <f>LOG10('Source Data'!D13)</f>
+        <v>-3.0384728863651245</v>
       </c>
       <c r="C12">
-        <f>'Source Data'!G13</f>
-        <v>8.0419392760267005E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G13)</f>
+        <v>-3.1160622576643151</v>
+      </c>
+      <c r="D12">
+        <f>LOG10('Source Data'!J13)</f>
+        <v>-3.0946392105400076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f>'Source Data'!D14</f>
-        <v>9.1006435134344298E-4</v>
+        <f>LOG10('Source Data'!D14)</f>
+        <v>-3.0409278972995164</v>
       </c>
       <c r="C13">
-        <f>'Source Data'!G14</f>
-        <v>7.9412917685450801E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G14)</f>
+        <v>-3.1199946687942504</v>
+      </c>
+      <c r="D13">
+        <f>LOG10('Source Data'!J14)</f>
+        <v>-3.1001088474066028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f>'Source Data'!D15</f>
-        <v>8.90339335014256E-4</v>
+        <f>LOG10('Source Data'!D15)</f>
+        <v>-3.0504444391564083</v>
       </c>
       <c r="C14">
-        <f>'Source Data'!G15</f>
-        <v>8.0074127081419799E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G15)</f>
+        <v>-3.1308436499816672</v>
+      </c>
+      <c r="D14">
+        <f>LOG10('Source Data'!J15)</f>
+        <v>-3.0965077870480169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f>'Source Data'!D16</f>
-        <v>8.6396438363134397E-4</v>
+        <f>LOG10('Source Data'!D16)</f>
+        <v>-3.0635041606590665</v>
       </c>
       <c r="C15">
-        <f>'Source Data'!G16</f>
-        <v>7.9795863484011199E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G16)</f>
+        <v>-3.1256992229290406</v>
+      </c>
+      <c r="D15">
+        <f>LOG10('Source Data'!J16)</f>
+        <v>-3.0980196213388784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f>'Source Data'!D17</f>
-        <v>8.6834070302033205E-4</v>
+        <f>LOG10('Source Data'!D17)</f>
+        <v>-3.0613098411714725</v>
       </c>
       <c r="C16">
-        <f>'Source Data'!G17</f>
-        <v>7.9132058740050105E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G17)</f>
+        <v>-3.1207667497800911</v>
+      </c>
+      <c r="D16">
+        <f>LOG10('Source Data'!J17)</f>
+        <v>-3.1016475352984902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <f>'Source Data'!D18</f>
-        <v>8.7594496421061795E-4</v>
+        <f>LOG10('Source Data'!D18)</f>
+        <v>-3.0575231797799733</v>
       </c>
       <c r="C17">
-        <f>'Source Data'!G18</f>
-        <v>7.8254902392138604E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G18)</f>
+        <v>-3.1157668800735476</v>
+      </c>
+      <c r="D17">
+        <f>LOG10('Source Data'!J18)</f>
+        <v>-3.1064884459200082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <f>'Source Data'!D19</f>
-        <v>8.72001638221653E-4</v>
+        <f>LOG10('Source Data'!D19)</f>
+        <v>-3.0594826991615203</v>
       </c>
       <c r="C18">
-        <f>'Source Data'!G19</f>
-        <v>7.88474063657563E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G19)</f>
+        <v>-3.1123043208708387</v>
+      </c>
+      <c r="D18">
+        <f>LOG10('Source Data'!J19)</f>
+        <v>-3.1032125879351549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <f>'Source Data'!D20</f>
-        <v>8.6462725089908599E-4</v>
+        <f>LOG10('Source Data'!D20)</f>
+        <v>-3.06317108070545</v>
       </c>
       <c r="C19">
-        <f>'Source Data'!G20</f>
-        <v>7.88270165684279E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G20)</f>
+        <v>-3.1051866127039682</v>
+      </c>
+      <c r="D19">
+        <f>LOG10('Source Data'!J20)</f>
+        <v>-3.103324910230064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <f>'Source Data'!D21</f>
-        <v>8.6697691573966995E-4</v>
+        <f>LOG10('Source Data'!D21)</f>
+        <v>-3.06199246596133</v>
       </c>
       <c r="C20">
-        <f>'Source Data'!G21</f>
-        <v>7.83251288313913E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G21)</f>
+        <v>-3.1123467155685285</v>
+      </c>
+      <c r="D20">
+        <f>LOG10('Source Data'!J21)</f>
+        <v>-3.1060988821057998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <f>'Source Data'!D22</f>
-        <v>8.74910912399551E-4</v>
+        <f>LOG10('Source Data'!D22)</f>
+        <v>-3.0580361666611462</v>
       </c>
       <c r="C21">
-        <f>'Source Data'!G22</f>
-        <v>7.8685391852151298E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!G22)</f>
+        <v>-3.1160116527542825</v>
+      </c>
+      <c r="D21">
+        <f>LOG10('Source Data'!J22)</f>
+        <v>-3.1041058880586894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <f>'Source Data'!D23</f>
-        <v>8.7667094893717501E-4</v>
+        <f>LOG10('Source Data'!D23)</f>
+        <v>-3.0571633848284869</v>
       </c>
       <c r="C22">
-        <f>'Source Data'!G23</f>
-        <v>7.8882347209807701E-4</v>
+        <f>LOG10('Source Data'!G23)</f>
+        <v>-3.1143633273975859</v>
+      </c>
+      <c r="D22">
+        <f>LOG10('Source Data'!J23)</f>
+        <v>-3.1030201750812854</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/CapitalConstraint/Results.xlsx
+++ b/Examples/CapitalConstraint/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6825" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Source Data" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>1023 point QMC</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Sparse, degree 5</t>
+  </si>
+  <si>
+    <t>Seconds</t>
   </si>
 </sst>
 </file>
@@ -101,12 +104,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,10 +190,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$A$2:$A$22</c:f>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -251,16 +256,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$B$2:$B$22</c:f>
+              <c:f>'Data for 1 Norm Plot'!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-3.4636417474384062</c:v>
                 </c:pt>
@@ -322,7 +333,13 @@
                   <c:v>-3.828997389191942</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.8250884799239846</c:v>
+                  <c:v>-3.8250894769161139</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.8212967669611704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.8188245212748564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,10 +394,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$A$2:$A$22</c:f>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -443,16 +460,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$C$2:$C$22</c:f>
+              <c:f>'Data for 1 Norm Plot'!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-3.4636417474384062</c:v>
                 </c:pt>
@@ -514,7 +537,13 @@
                   <c:v>-3.9354774210491033</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.9406999788479338</c:v>
+                  <c:v>-3.9406996313149829</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.9417624198897125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.9383501207947131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,10 +596,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$A$2:$A$22</c:f>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -633,16 +662,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$D$2:$D$22</c:f>
+              <c:f>'Data for 1 Norm Plot'!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-3.4636417474384062</c:v>
                 </c:pt>
@@ -704,7 +739,13 @@
                   <c:v>-3.6890472492372206</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.691092472411849</c:v>
+                  <c:v>-3.6910889948022803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.6896024863050805</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.6742338400221093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,7 +772,8 @@
         <c:axId val="192072752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1115,10 +1157,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$A$2:$A$22</c:f>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1181,16 +1223,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$B$2:$B$22</c:f>
+              <c:f>'Data for Inf Norm Plot'!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-2.8029575302182663</c:v>
                 </c:pt>
@@ -1252,7 +1300,13 @@
                   <c:v>-3.0580361666611462</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.0571633848284869</c:v>
+                  <c:v>-3.0571633847537978</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.0569372315676691</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.059262641443607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,10 +1361,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$A$2:$A$22</c:f>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1373,16 +1427,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$C$2:$C$22</c:f>
+              <c:f>'Data for Inf Norm Plot'!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-2.8029575302182663</c:v>
                 </c:pt>
@@ -1445,6 +1505,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-3.1143633273975859</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.1229787034160466</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.134875567534662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,10 +1563,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$A$2:$A$22</c:f>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1563,16 +1629,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$D$2:$D$22</c:f>
+              <c:f>'Data for Inf Norm Plot'!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-2.8029575302182663</c:v>
                 </c:pt>
@@ -1634,7 +1706,13 @@
                   <c:v>-3.1041058880586894</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.1030201750812854</c:v>
+                  <c:v>-3.1029668031669444</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.104349545643299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.1051761136542995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,7 +1739,8 @@
         <c:axId val="192072752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3083,7 +3162,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3094,7 +3173,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3105,7 +3184,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3132,7 +3211,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3452,32 +3531,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3490,26 +3576,35 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3522,26 +3617,26 @@
       <c r="D3">
         <v>1.5741367922274001E-3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.43841468181557E-4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4.2267417682874701E-4</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.5741367922274001E-3</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>3.43841468181557E-4</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>4.2267417682874701E-4</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1.5741367922274001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3554,26 +3649,26 @@
       <c r="D4">
         <v>1.17445739778665E-3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.50352529037425E-4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.0752811760929199E-4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.15343722016104E-3</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>2.7740551845634501E-4</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>3.3756417833769102E-4</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1.22557977911109E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3586,26 +3681,26 @@
       <c r="D5">
         <v>1.03449692201241E-3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.42068031133308E-4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.9229202288159E-4</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.0249501345346299E-3</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>2.6120681766585201E-4</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>3.1555770968816501E-4</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1.0967152217461499E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3618,26 +3713,26 @@
       <c r="D6">
         <v>8.8199394375609896E-4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.3478510475058499E-4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.7855399474838698E-4</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8.9406967030181096E-4</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>2.4604573820404397E-4</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>2.9646305833863602E-4</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>9.9953280140352408E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3650,26 +3745,26 @@
       <c r="D7">
         <v>8.57701438786163E-4</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.2306172716469501E-4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.6300330157257002E-4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8.4790743897866804E-4</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>2.35442361974726E-4</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>2.8308683412459301E-4</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>9.3285260942355098E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3682,26 +3777,26 @@
       <c r="D8">
         <v>8.6547110711365804E-4</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.1223268260128799E-4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.51508180780789E-4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8.4280577956641302E-4</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>2.2826869310479199E-4</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>2.7405716099146801E-4</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>9.0033051136262398E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3714,26 +3809,26 @@
       <c r="D9">
         <v>8.7138311111967205E-4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.0431863974990799E-4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.43975045679572E-4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8.23296049293876E-4</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>2.2329080774870401E-4</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>2.68022181418428E-4</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>8.68256913550414E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3746,26 +3841,26 @@
       <c r="D10">
         <v>8.9718396635607401E-4</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.97178984367995E-4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.3664005361763801E-4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>8.03136155474227E-4</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>2.1733035905377901E-4</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>2.6106397107659703E-4</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>8.3442846285508598E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3778,26 +3873,26 @@
       <c r="D11">
         <v>8.97953808966512E-4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.8796535318713401E-4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2.27075814135589E-4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7.9205350991906598E-4</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>2.1642281386923299E-4</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>2.5987169535686698E-4</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>8.1476918895417904E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3810,26 +3905,26 @@
       <c r="D12">
         <v>8.9592118720560599E-4</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.7854558175633799E-4</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2.1762246182055101E-4</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>7.70473171613828E-4</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>2.11219107345891E-4</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>2.5265021372050602E-4</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>8.0977151710015505E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3842,26 +3937,26 @@
       <c r="D13">
         <v>9.1522339622274196E-4</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.7001617477763E-4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2.0811155879036701E-4</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>7.6548686377087005E-4</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>2.08810975281206E-4</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>2.4961600117103699E-4</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>8.0419392760267005E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3874,26 +3969,26 @@
       <c r="D14">
         <v>9.1006435134344298E-4</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.60998141207514E-4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.9771113896605599E-4</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>7.5858688704699695E-4</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>2.0880583404497301E-4</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>2.4967666073812399E-4</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>7.9412917685450801E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3906,26 +4001,26 @@
       <c r="D15">
         <v>8.90339335014256E-4</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.52389326206866E-4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.8724583794284299E-4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>7.3987158771215999E-4</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>2.0655761515998199E-4</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>2.47972814006438E-4</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>8.0074127081419799E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3938,26 +4033,26 @@
       <c r="D16">
         <v>8.6396438363134397E-4</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.44759632053712E-4</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.7698902976592999E-4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>7.4868783584125498E-4</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>2.04942777547942E-4</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>2.4586610538389201E-4</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>7.9795863484011199E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3970,26 +4065,26 @@
       <c r="D17">
         <v>8.6834070302033205E-4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.38279159107204E-4</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.68079737891357E-4</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>7.5723948285633103E-4</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>2.0249030880181799E-4</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>2.4332596871586601E-4</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>7.9132058740050105E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4002,26 +4097,26 @@
       <c r="D18">
         <v>8.7594496421061795E-4</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.32584474683456E-4</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.6050149520181999E-4</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>7.6600767300050198E-4</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>2.05397803805449E-4</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>2.44367967088775E-4</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>7.8254902392138604E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4034,26 +4129,26 @@
       <c r="D19">
         <v>8.72001638221653E-4</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.27577373624061E-4</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.5389914461953801E-4</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7.7213933837860804E-4</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>2.0609372985244901E-4</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>2.4596561019415303E-4</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>7.88474063657563E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4066,26 +4161,26 @@
       <c r="D20">
         <v>8.6462725089908599E-4</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.23068432970641E-4</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.48371413472434E-4</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7.8489829791061904E-4</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>2.0735529837953399E-4</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>2.4745898239776198E-4</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>7.88270165684279E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -4098,26 +4193,26 @@
       <c r="D21">
         <v>8.6697691573966995E-4</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.19016092057727E-4</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.4385426117779601E-4</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>7.7206396782358898E-4</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>2.03614338276103E-4</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>2.42701270549147E-4</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>7.83251288313913E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4130,62 +4225,159 @@
       <c r="D22">
         <v>8.74910912399551E-4</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.16017253189873E-4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.4049591517065001E-4</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>7.6557606511340503E-4</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>2.04622200509465E-4</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>2.44335653702164E-4</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>7.8685391852151298E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>1.4959308552328201E-4</v>
+        <v>1.4959274210893099E-4</v>
       </c>
       <c r="C23">
-        <v>2.16932421394425E-4</v>
+        <v>2.1693278954055899E-4</v>
       </c>
       <c r="D23">
-        <v>8.7667094893717501E-4</v>
+        <v>8.7667094908794297E-4</v>
       </c>
       <c r="E23">
-        <v>1.14630456294811E-4</v>
+        <v>2723.0709999999999</v>
       </c>
       <c r="F23">
-        <v>1.38948108407808E-4</v>
+        <v>1.14630548024912E-4</v>
       </c>
       <c r="G23">
+        <v>1.3894824068845E-4</v>
+      </c>
+      <c r="H23">
         <v>7.6848726079836705E-4</v>
       </c>
-      <c r="H23">
-        <v>2.0366083854788601E-4</v>
-      </c>
-      <c r="I23">
-        <v>2.42676412007738E-4</v>
+      <c r="I23" s="4">
+        <v>4209.9399999999996</v>
       </c>
       <c r="J23">
-        <v>7.8882347209807701E-4</v>
-      </c>
+        <v>2.03662469366941E-4</v>
+      </c>
+      <c r="K23">
+        <v>2.4267755734622799E-4</v>
+      </c>
+      <c r="L23">
+        <v>7.8892041923328505E-4</v>
+      </c>
+      <c r="M23" s="4">
+        <v>12388.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1.5090486217884301E-4</v>
+      </c>
+      <c r="C24">
+        <v>2.1776614253727201E-4</v>
+      </c>
+      <c r="D24">
+        <v>8.7712758293134697E-4</v>
+      </c>
+      <c r="E24">
+        <v>2785.4459999999999</v>
+      </c>
+      <c r="F24">
+        <v>1.1435037156186601E-4</v>
+      </c>
+      <c r="G24">
+        <v>1.3890355887416099E-4</v>
+      </c>
+      <c r="H24">
+        <v>7.53392507084505E-4</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4247.3249999999998</v>
+      </c>
+      <c r="J24">
+        <v>2.0436076215424101E-4</v>
+      </c>
+      <c r="K24">
+        <v>2.4568164470786601E-4</v>
+      </c>
+      <c r="L24">
+        <v>7.8641258398715096E-4</v>
+      </c>
+      <c r="M24" s="4">
+        <v>12762.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1.51766346263902E-4</v>
+      </c>
+      <c r="C25">
+        <v>2.1774856927272499E-4</v>
+      </c>
+      <c r="D25">
+        <v>8.7244359482574496E-4</v>
+      </c>
+      <c r="E25">
+        <v>2777.567</v>
+      </c>
+      <c r="F25">
+        <v>1.1525237382343101E-4</v>
+      </c>
+      <c r="G25">
+        <v>1.39916937864912E-4</v>
+      </c>
+      <c r="H25">
+        <v>7.3303452942408099E-4</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4361.4359999999997</v>
+      </c>
+      <c r="J25">
+        <v>2.1172208392052701E-4</v>
+      </c>
+      <c r="K25">
+        <v>2.5095626487913402E-4</v>
+      </c>
+      <c r="L25">
+        <v>7.8491727302121305E-4</v>
+      </c>
+      <c r="M25" s="4">
+        <v>13350.364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S26" s="3"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4193,10 +4385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4228,11 +4420,11 @@
         <v>-3.4636417474384062</v>
       </c>
       <c r="C2">
-        <f>LOG10('Source Data'!E3)</f>
+        <f>LOG10('Source Data'!F3)</f>
         <v>-3.4636417474384062</v>
       </c>
       <c r="D2">
-        <f>LOG10('Source Data'!H3)</f>
+        <f>LOG10('Source Data'!J3)</f>
         <v>-3.4636417474384062</v>
       </c>
       <c r="E2" s="1"/>
@@ -4247,11 +4439,11 @@
         <v>-3.537336242480936</v>
       </c>
       <c r="C3">
-        <f>LOG10('Source Data'!E4)</f>
+        <f>LOG10('Source Data'!F4)</f>
         <v>-3.6014480170413834</v>
       </c>
       <c r="D3">
-        <f>LOG10('Source Data'!H4)</f>
+        <f>LOG10('Source Data'!J4)</f>
         <v>-3.5568849037122621</v>
       </c>
       <c r="E3" s="1"/>
@@ -4266,11 +4458,11 @@
         <v>-3.5776010304664241</v>
       </c>
       <c r="C4">
-        <f>LOG10('Source Data'!E5)</f>
+        <f>LOG10('Source Data'!F5)</f>
         <v>-3.6160625621450073</v>
       </c>
       <c r="D4">
-        <f>LOG10('Source Data'!H5)</f>
+        <f>LOG10('Source Data'!J5)</f>
         <v>-3.5830154918838768</v>
       </c>
     </row>
@@ -4283,11 +4475,11 @@
         <v>-3.6224368155672217</v>
       </c>
       <c r="C5">
-        <f>LOG10('Source Data'!E6)</f>
+        <f>LOG10('Source Data'!F6)</f>
         <v>-3.6293294590846621</v>
       </c>
       <c r="D5">
-        <f>LOG10('Source Data'!H6)</f>
+        <f>LOG10('Source Data'!J6)</f>
         <v>-3.6089841530460607</v>
       </c>
     </row>
@@ -4300,11 +4492,11 @@
         <v>-3.6796220423643664</v>
       </c>
       <c r="C6">
-        <f>LOG10('Source Data'!E7)</f>
+        <f>LOG10('Source Data'!F7)</f>
         <v>-3.6515749393847803</v>
       </c>
       <c r="D6">
-        <f>LOG10('Source Data'!H7)</f>
+        <f>LOG10('Source Data'!J7)</f>
         <v>-3.6281153940130815</v>
       </c>
     </row>
@@ -4317,11 +4509,11 @@
         <v>-3.7262571451974993</v>
       </c>
       <c r="C7">
-        <f>LOG10('Source Data'!E8)</f>
+        <f>LOG10('Source Data'!F8)</f>
         <v>-3.6731877364551755</v>
       </c>
       <c r="D7">
-        <f>LOG10('Source Data'!H8)</f>
+        <f>LOG10('Source Data'!J8)</f>
         <v>-3.641553647616909</v>
       </c>
     </row>
@@ -4334,11 +4526,11 @@
         <v>-3.7613803553536225</v>
       </c>
       <c r="C8">
-        <f>LOG10('Source Data'!E9)</f>
+        <f>LOG10('Source Data'!F9)</f>
         <v>-3.6896920113838871</v>
       </c>
       <c r="D8">
-        <f>LOG10('Source Data'!H9)</f>
+        <f>LOG10('Source Data'!J9)</f>
         <v>-3.6511291552366032</v>
       </c>
     </row>
@@ -4351,11 +4543,11 @@
         <v>-3.7904534420654987</v>
       </c>
       <c r="C9">
-        <f>LOG10('Source Data'!E10)</f>
+        <f>LOG10('Source Data'!F10)</f>
         <v>-3.7051393746857784</v>
       </c>
       <c r="D9">
-        <f>LOG10('Source Data'!H10)</f>
+        <f>LOG10('Source Data'!J10)</f>
         <v>-3.6628796024940473</v>
       </c>
     </row>
@@ -4368,11 +4560,11 @@
         <v>-3.8081405616162165</v>
       </c>
       <c r="C10">
-        <f>LOG10('Source Data'!E11)</f>
+        <f>LOG10('Source Data'!F11)</f>
         <v>-3.7259221949188932</v>
       </c>
       <c r="D10">
-        <f>LOG10('Source Data'!H11)</f>
+        <f>LOG10('Source Data'!J11)</f>
         <v>-3.6646969606852204</v>
       </c>
     </row>
@@ -4385,11 +4577,11 @@
         <v>-3.8198807767996938</v>
       </c>
       <c r="C11">
-        <f>LOG10('Source Data'!E12)</f>
+        <f>LOG10('Source Data'!F12)</f>
         <v>-3.7482508922792821</v>
       </c>
       <c r="D11">
-        <f>LOG10('Source Data'!H12)</f>
+        <f>LOG10('Source Data'!J12)</f>
         <v>-3.675266797125273</v>
       </c>
     </row>
@@ -4402,11 +4594,11 @@
         <v>-3.8311177125151277</v>
       </c>
       <c r="C12">
-        <f>LOG10('Source Data'!E13)</f>
+        <f>LOG10('Source Data'!F13)</f>
         <v>-3.7695097593128395</v>
       </c>
       <c r="D12">
-        <f>LOG10('Source Data'!H13)</f>
+        <f>LOG10('Source Data'!J13)</f>
         <v>-3.6802466781851146</v>
       </c>
     </row>
@@ -4419,11 +4611,11 @@
         <v>-3.8385840575167225</v>
       </c>
       <c r="C13">
-        <f>LOG10('Source Data'!E14)</f>
+        <f>LOG10('Source Data'!F14)</f>
         <v>-3.7931791380549811</v>
       </c>
       <c r="D13">
-        <f>LOG10('Source Data'!H14)</f>
+        <f>LOG10('Source Data'!J14)</f>
         <v>-3.6802573712916966</v>
       </c>
     </row>
@@ -4436,11 +4628,11 @@
         <v>-3.839451877626042</v>
       </c>
       <c r="C14">
-        <f>LOG10('Source Data'!E15)</f>
+        <f>LOG10('Source Data'!F15)</f>
         <v>-3.8170454511840801</v>
       </c>
       <c r="D14">
-        <f>LOG10('Source Data'!H15)</f>
+        <f>LOG10('Source Data'!J15)</f>
         <v>-3.684958789256775</v>
       </c>
     </row>
@@ -4453,11 +4645,11 @@
         <v>-3.8414756187224852</v>
       </c>
       <c r="C15">
-        <f>LOG10('Source Data'!E16)</f>
+        <f>LOG10('Source Data'!F16)</f>
         <v>-3.839352529440915</v>
       </c>
       <c r="D15">
-        <f>LOG10('Source Data'!H16)</f>
+        <f>LOG10('Source Data'!J16)</f>
         <v>-3.6883673821844845</v>
       </c>
     </row>
@@ -4470,11 +4662,11 @@
         <v>-3.844901148822478</v>
       </c>
       <c r="C16">
-        <f>LOG10('Source Data'!E17)</f>
+        <f>LOG10('Source Data'!F17)</f>
         <v>-3.8592432701204578</v>
       </c>
       <c r="D16">
-        <f>LOG10('Source Data'!H17)</f>
+        <f>LOG10('Source Data'!J17)</f>
         <v>-3.6935957573115812</v>
       </c>
     </row>
@@ -4487,11 +4679,11 @@
         <v>-3.8413076275247935</v>
       </c>
       <c r="C17">
-        <f>LOG10('Source Data'!E18)</f>
+        <f>LOG10('Source Data'!F18)</f>
         <v>-3.877507327771804</v>
       </c>
       <c r="D17">
-        <f>LOG10('Source Data'!H18)</f>
+        <f>LOG10('Source Data'!J18)</f>
         <v>-3.6874042043622746</v>
       </c>
     </row>
@@ -4504,11 +4696,11 @@
         <v>-3.8340663615458763</v>
       </c>
       <c r="C18">
-        <f>LOG10('Source Data'!E19)</f>
+        <f>LOG10('Source Data'!F19)</f>
         <v>-3.8942263427116468</v>
       </c>
       <c r="D18">
-        <f>LOG10('Source Data'!H19)</f>
+        <f>LOG10('Source Data'!J19)</f>
         <v>-3.6859352208937857</v>
       </c>
     </row>
@@ -4521,11 +4713,11 @@
         <v>-3.830581093185498</v>
       </c>
       <c r="C19">
-        <f>LOG10('Source Data'!E20)</f>
+        <f>LOG10('Source Data'!F20)</f>
         <v>-3.9098533292355229</v>
       </c>
       <c r="D19">
-        <f>LOG10('Source Data'!H20)</f>
+        <f>LOG10('Source Data'!J20)</f>
         <v>-3.6832848629881916</v>
       </c>
     </row>
@@ -4538,11 +4730,11 @@
         <v>-3.8302181302572236</v>
       </c>
       <c r="C20">
-        <f>LOG10('Source Data'!E21)</f>
+        <f>LOG10('Source Data'!F21)</f>
         <v>-3.9243943140748248</v>
       </c>
       <c r="D20">
-        <f>LOG10('Source Data'!H21)</f>
+        <f>LOG10('Source Data'!J21)</f>
         <v>-3.6911916427648648</v>
       </c>
     </row>
@@ -4555,11 +4747,11 @@
         <v>-3.828997389191942</v>
       </c>
       <c r="C21">
-        <f>LOG10('Source Data'!E22)</f>
+        <f>LOG10('Source Data'!F22)</f>
         <v>-3.9354774210491033</v>
       </c>
       <c r="D21">
-        <f>LOG10('Source Data'!H22)</f>
+        <f>LOG10('Source Data'!J22)</f>
         <v>-3.6890472492372206</v>
       </c>
     </row>
@@ -4569,15 +4761,49 @@
       </c>
       <c r="B22">
         <f>LOG10('Source Data'!B23)</f>
-        <v>-3.8250884799239846</v>
+        <v>-3.8250894769161139</v>
       </c>
       <c r="C22">
-        <f>LOG10('Source Data'!E23)</f>
-        <v>-3.9406999788479338</v>
+        <f>LOG10('Source Data'!F23)</f>
+        <v>-3.9406996313149829</v>
       </c>
       <c r="D22">
-        <f>LOG10('Source Data'!H23)</f>
-        <v>-3.691092472411849</v>
+        <f>LOG10('Source Data'!J23)</f>
+        <v>-3.6910889948022803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f>LOG10('Source Data'!B24)</f>
+        <v>-3.8212967669611704</v>
+      </c>
+      <c r="C23">
+        <f>LOG10('Source Data'!F24)</f>
+        <v>-3.9417624198897125</v>
+      </c>
+      <c r="D23">
+        <f>LOG10('Source Data'!J24)</f>
+        <v>-3.6896024863050805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f>LOG10('Source Data'!B25)</f>
+        <v>-3.8188245212748564</v>
+      </c>
+      <c r="C24">
+        <f>LOG10('Source Data'!F25)</f>
+        <v>-3.9383501207947131</v>
+      </c>
+      <c r="D24">
+        <f>LOG10('Source Data'!J25)</f>
+        <v>-3.6742338400221093</v>
       </c>
     </row>
   </sheetData>
@@ -4587,10 +4813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4622,11 +4848,11 @@
         <v>-2.8029575302182663</v>
       </c>
       <c r="C2">
-        <f>LOG10('Source Data'!G3)</f>
+        <f>LOG10('Source Data'!H3)</f>
         <v>-2.8029575302182663</v>
       </c>
       <c r="D2">
-        <f>LOG10('Source Data'!J3)</f>
+        <f>LOG10('Source Data'!L3)</f>
         <v>-2.8029575302182663</v>
       </c>
       <c r="E2" s="1"/>
@@ -4641,11 +4867,11 @@
         <v>-2.9301627321786183</v>
       </c>
       <c r="C3">
-        <f>LOG10('Source Data'!G4)</f>
+        <f>LOG10('Source Data'!H4)</f>
         <v>-2.9380060384897591</v>
       </c>
       <c r="D3">
-        <f>LOG10('Source Data'!J4)</f>
+        <f>LOG10('Source Data'!L4)</f>
         <v>-2.9116584130940741</v>
       </c>
       <c r="E3" s="1"/>
@@ -4660,11 +4886,11 @@
         <v>-2.9852707971732242</v>
       </c>
       <c r="C4">
-        <f>LOG10('Source Data'!G5)</f>
+        <f>LOG10('Source Data'!H5)</f>
         <v>-2.9892972632162715</v>
       </c>
       <c r="D4">
-        <f>LOG10('Source Data'!J5)</f>
+        <f>LOG10('Source Data'!L5)</f>
         <v>-2.9599061287426829</v>
       </c>
     </row>
@@ -4677,11 +4903,11 @@
         <v>-3.0545343969569982</v>
       </c>
       <c r="C5">
-        <f>LOG10('Source Data'!G6)</f>
+        <f>LOG10('Source Data'!H6)</f>
         <v>-3.0486286375254528</v>
       </c>
       <c r="D5">
-        <f>LOG10('Source Data'!J6)</f>
+        <f>LOG10('Source Data'!L6)</f>
         <v>-3.0002029491848821</v>
       </c>
     </row>
@@ -4694,11 +4920,11 @@
         <v>-3.0666638613967954</v>
       </c>
       <c r="C6">
-        <f>LOG10('Source Data'!G7)</f>
+        <f>LOG10('Source Data'!H7)</f>
         <v>-3.0716515545060843</v>
       </c>
       <c r="D6">
-        <f>LOG10('Source Data'!J7)</f>
+        <f>LOG10('Source Data'!L7)</f>
         <v>-3.0301869692981169</v>
       </c>
     </row>
@@ -4711,11 +4937,11 @@
         <v>-3.0627474260330168</v>
       </c>
       <c r="C7">
-        <f>LOG10('Source Data'!G8)</f>
+        <f>LOG10('Source Data'!H8)</f>
         <v>-3.0742724948660323</v>
       </c>
       <c r="D7">
-        <f>LOG10('Source Data'!J8)</f>
+        <f>LOG10('Source Data'!L8)</f>
         <v>-3.0455980317705245</v>
       </c>
     </row>
@@ -4728,11 +4954,11 @@
         <v>-3.0597908616812051</v>
       </c>
       <c r="C8">
-        <f>LOG10('Source Data'!G9)</f>
+        <f>LOG10('Source Data'!H9)</f>
         <v>-3.084443968608868</v>
       </c>
       <c r="D8">
-        <f>LOG10('Source Data'!J9)</f>
+        <f>LOG10('Source Data'!L9)</f>
         <v>-3.0613517499062399</v>
       </c>
     </row>
@@ -4745,11 +4971,11 @@
         <v>-3.0471184963299329</v>
       </c>
       <c r="C9">
-        <f>LOG10('Source Data'!G10)</f>
+        <f>LOG10('Source Data'!H10)</f>
         <v>-3.0952108226433936</v>
       </c>
       <c r="D9">
-        <f>LOG10('Source Data'!J10)</f>
+        <f>LOG10('Source Data'!L10)</f>
         <v>-3.0786108902837359</v>
       </c>
     </row>
@@ -4762,11 +4988,11 @@
         <v>-3.0467460030063127</v>
       </c>
       <c r="C10">
-        <f>LOG10('Source Data'!G11)</f>
+        <f>LOG10('Source Data'!H11)</f>
         <v>-3.1012454771509583</v>
       </c>
       <c r="D10">
-        <f>LOG10('Source Data'!J11)</f>
+        <f>LOG10('Source Data'!L11)</f>
         <v>-3.088965402499789</v>
       </c>
     </row>
@@ -4779,11 +5005,11 @@
         <v>-3.0477301928681815</v>
       </c>
       <c r="C11">
-        <f>LOG10('Source Data'!G12)</f>
+        <f>LOG10('Source Data'!H12)</f>
         <v>-3.1132424791038042</v>
       </c>
       <c r="D11">
-        <f>LOG10('Source Data'!J12)</f>
+        <f>LOG10('Source Data'!L12)</f>
         <v>-3.0916375031711856</v>
       </c>
     </row>
@@ -4796,11 +5022,11 @@
         <v>-3.0384728863651245</v>
       </c>
       <c r="C12">
-        <f>LOG10('Source Data'!G13)</f>
+        <f>LOG10('Source Data'!H13)</f>
         <v>-3.1160622576643151</v>
       </c>
       <c r="D12">
-        <f>LOG10('Source Data'!J13)</f>
+        <f>LOG10('Source Data'!L13)</f>
         <v>-3.0946392105400076</v>
       </c>
     </row>
@@ -4813,11 +5039,11 @@
         <v>-3.0409278972995164</v>
       </c>
       <c r="C13">
-        <f>LOG10('Source Data'!G14)</f>
+        <f>LOG10('Source Data'!H14)</f>
         <v>-3.1199946687942504</v>
       </c>
       <c r="D13">
-        <f>LOG10('Source Data'!J14)</f>
+        <f>LOG10('Source Data'!L14)</f>
         <v>-3.1001088474066028</v>
       </c>
     </row>
@@ -4830,11 +5056,11 @@
         <v>-3.0504444391564083</v>
       </c>
       <c r="C14">
-        <f>LOG10('Source Data'!G15)</f>
+        <f>LOG10('Source Data'!H15)</f>
         <v>-3.1308436499816672</v>
       </c>
       <c r="D14">
-        <f>LOG10('Source Data'!J15)</f>
+        <f>LOG10('Source Data'!L15)</f>
         <v>-3.0965077870480169</v>
       </c>
     </row>
@@ -4847,11 +5073,11 @@
         <v>-3.0635041606590665</v>
       </c>
       <c r="C15">
-        <f>LOG10('Source Data'!G16)</f>
+        <f>LOG10('Source Data'!H16)</f>
         <v>-3.1256992229290406</v>
       </c>
       <c r="D15">
-        <f>LOG10('Source Data'!J16)</f>
+        <f>LOG10('Source Data'!L16)</f>
         <v>-3.0980196213388784</v>
       </c>
     </row>
@@ -4864,11 +5090,11 @@
         <v>-3.0613098411714725</v>
       </c>
       <c r="C16">
-        <f>LOG10('Source Data'!G17)</f>
+        <f>LOG10('Source Data'!H17)</f>
         <v>-3.1207667497800911</v>
       </c>
       <c r="D16">
-        <f>LOG10('Source Data'!J17)</f>
+        <f>LOG10('Source Data'!L17)</f>
         <v>-3.1016475352984902</v>
       </c>
     </row>
@@ -4881,11 +5107,11 @@
         <v>-3.0575231797799733</v>
       </c>
       <c r="C17">
-        <f>LOG10('Source Data'!G18)</f>
+        <f>LOG10('Source Data'!H18)</f>
         <v>-3.1157668800735476</v>
       </c>
       <c r="D17">
-        <f>LOG10('Source Data'!J18)</f>
+        <f>LOG10('Source Data'!L18)</f>
         <v>-3.1064884459200082</v>
       </c>
     </row>
@@ -4898,11 +5124,11 @@
         <v>-3.0594826991615203</v>
       </c>
       <c r="C18">
-        <f>LOG10('Source Data'!G19)</f>
+        <f>LOG10('Source Data'!H19)</f>
         <v>-3.1123043208708387</v>
       </c>
       <c r="D18">
-        <f>LOG10('Source Data'!J19)</f>
+        <f>LOG10('Source Data'!L19)</f>
         <v>-3.1032125879351549</v>
       </c>
     </row>
@@ -4915,11 +5141,11 @@
         <v>-3.06317108070545</v>
       </c>
       <c r="C19">
-        <f>LOG10('Source Data'!G20)</f>
+        <f>LOG10('Source Data'!H20)</f>
         <v>-3.1051866127039682</v>
       </c>
       <c r="D19">
-        <f>LOG10('Source Data'!J20)</f>
+        <f>LOG10('Source Data'!L20)</f>
         <v>-3.103324910230064</v>
       </c>
     </row>
@@ -4932,11 +5158,11 @@
         <v>-3.06199246596133</v>
       </c>
       <c r="C20">
-        <f>LOG10('Source Data'!G21)</f>
+        <f>LOG10('Source Data'!H21)</f>
         <v>-3.1123467155685285</v>
       </c>
       <c r="D20">
-        <f>LOG10('Source Data'!J21)</f>
+        <f>LOG10('Source Data'!L21)</f>
         <v>-3.1060988821057998</v>
       </c>
     </row>
@@ -4949,11 +5175,11 @@
         <v>-3.0580361666611462</v>
       </c>
       <c r="C21">
-        <f>LOG10('Source Data'!G22)</f>
+        <f>LOG10('Source Data'!H22)</f>
         <v>-3.1160116527542825</v>
       </c>
       <c r="D21">
-        <f>LOG10('Source Data'!J22)</f>
+        <f>LOG10('Source Data'!L22)</f>
         <v>-3.1041058880586894</v>
       </c>
     </row>
@@ -4963,15 +5189,49 @@
       </c>
       <c r="B22">
         <f>LOG10('Source Data'!D23)</f>
-        <v>-3.0571633848284869</v>
+        <v>-3.0571633847537978</v>
       </c>
       <c r="C22">
-        <f>LOG10('Source Data'!G23)</f>
+        <f>LOG10('Source Data'!H23)</f>
         <v>-3.1143633273975859</v>
       </c>
       <c r="D22">
-        <f>LOG10('Source Data'!J23)</f>
-        <v>-3.1030201750812854</v>
+        <f>LOG10('Source Data'!L23)</f>
+        <v>-3.1029668031669444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f>LOG10('Source Data'!D24)</f>
+        <v>-3.0569372315676691</v>
+      </c>
+      <c r="C23">
+        <f>LOG10('Source Data'!H24)</f>
+        <v>-3.1229787034160466</v>
+      </c>
+      <c r="D23">
+        <f>LOG10('Source Data'!L24)</f>
+        <v>-3.104349545643299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f>LOG10('Source Data'!D25)</f>
+        <v>-3.059262641443607</v>
+      </c>
+      <c r="C24">
+        <f>LOG10('Source Data'!H25)</f>
+        <v>-3.134875567534662</v>
+      </c>
+      <c r="D24">
+        <f>LOG10('Source Data'!L25)</f>
+        <v>-3.1051761136542995</v>
       </c>
     </row>
   </sheetData>
